--- a/example/info/02 fitting info.xlsx
+++ b/example/info/02 fitting info.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_0</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -579,27 +579,27 @@
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050127</v>
+        <v>63702.73562050128</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,20 +657,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -709,39 +709,39 @@
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001771310291409529</v>
+        <v>0.001771310291409491</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000558242918370003</v>
+        <v>0.0005582429183699906</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>65257.0047943025</v>
+        <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -799,20 +799,20 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -857,7 +857,7 @@
         <v>212.461144507981</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002194805336283908</v>
+        <v>0.0002194805336283906</v>
       </c>
       <c r="M6" t="n">
         <v>12.2246477870196</v>
@@ -870,20 +870,20 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -928,7 +928,7 @@
         <v>100.116005949159</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005565689981795847</v>
+        <v>0.0005565689981795848</v>
       </c>
       <c r="M7" t="n">
         <v>39.1667084006418</v>
@@ -941,20 +941,20 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,20 +1012,20 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1079,26 +1079,26 @@
         <v>60173.88540302405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00010109965432908</v>
+        <v>0.0001010996543290804</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00643791]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>[267.04645153]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
         </is>
       </c>
     </row>
@@ -1158,20 +1158,20 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>[0.00687551]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[264.47172192]</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[nan]</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>[nan]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,20 +1229,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663752]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>[258.06834779]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
         </is>
       </c>
     </row>
@@ -1375,20 +1375,20 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1427,7 +1427,7 @@
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003337599360594599</v>
+        <v>0.003337599360594598</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
@@ -1439,27 +1439,27 @@
         <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>57506.24417888996</v>
+        <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1517,20 +1517,20 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,20 +1588,20 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1640,39 +1640,39 @@
         <v>3.175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002407070069901566</v>
+        <v>0.002407070069901567</v>
       </c>
       <c r="K17" t="n">
         <v>144.247777516109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006398491389772654</v>
+        <v>0.0006398491389772661</v>
       </c>
       <c r="M17" t="n">
         <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>59926.70480174591</v>
+        <v>59926.70480174589</v>
       </c>
       <c r="O17" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1801,20 +1801,20 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1872,20 +1872,20 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1924,39 +1924,39 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938447006</v>
+        <v>0.003099591938446999</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.85013895770068e-05</v>
+        <v>9.850138957700593e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680211</v>
+        <v>59673.13012680225</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2001,7 +2001,7 @@
         <v>147.650044884146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008695210452605129</v>
+        <v>0.0008695210452605132</v>
       </c>
       <c r="M22" t="n">
         <v>50.5803295346691</v>
@@ -2014,20 +2014,20 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2066,39 +2066,39 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002986865689476005</v>
+        <v>0.002986865689476004</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001295917891209503</v>
+        <v>0.001295917891209504</v>
       </c>
       <c r="M23" t="n">
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784516</v>
+        <v>59252.56043784517</v>
       </c>
       <c r="O23" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2137,39 +2137,39 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891397</v>
+        <v>0.002913928760891336</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495404</v>
+        <v>0.0002542523812495351</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553228906</v>
+        <v>56462.62553229024</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2208,39 +2208,39 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002799291831076681</v>
+        <v>0.002799291831076499</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
       </c>
       <c r="L25" t="n">
-        <v>9.348677992880445e-06</v>
+        <v>9.34867799287871e-06</v>
       </c>
       <c r="M25" t="n">
         <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286097</v>
+        <v>59353.72383286482</v>
       </c>
       <c r="O25" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2279,39 +2279,39 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147758236</v>
+        <v>0.002342094147758199</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213629e-05</v>
+        <v>6.561829182213455e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582098</v>
+        <v>61169.49209582195</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2350,39 +2350,39 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583312018</v>
+        <v>0.001877897583311999</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191429e-05</v>
+        <v>4.202040312191342e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.7245441433</v>
+        <v>61209.72454414391</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2427,7 +2427,7 @@
         <v>211.28186215837</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003993781755485528</v>
+        <v>0.0003993781755485529</v>
       </c>
       <c r="M28" t="n">
         <v>23.3868577089734</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2492,39 +2492,39 @@
         <v>3.175</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001648224949389607</v>
+        <v>0.001648224949389693</v>
       </c>
       <c r="K29" t="n">
         <v>100.820663952542</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004206924613086712</v>
+        <v>0.000420692461308693</v>
       </c>
       <c r="M29" t="n">
         <v>25.7334372257117</v>
       </c>
       <c r="N29" t="n">
-        <v>61169.23784576812</v>
+        <v>61169.23784576494</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2582,20 +2582,20 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2634,39 +2634,39 @@
         <v>3.175</v>
       </c>
       <c r="J31" t="n">
-        <v>0.003770420637788741</v>
+        <v>0.00377042063778874</v>
       </c>
       <c r="K31" t="n">
         <v>185.923507771131</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001201807354363141</v>
+        <v>0.00120180735436314</v>
       </c>
       <c r="M31" t="n">
         <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>49311.07842656266</v>
+        <v>49311.07842656267</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2705,39 +2705,39 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000542026924884292</v>
+        <v>0.0005420269248841921</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559954508e-05</v>
+        <v>4.254760559953716e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449705892</v>
+        <v>85101.44449707461</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2795,20 +2795,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2866,20 +2866,20 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2937,20 +2937,20 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2995,33 +2995,33 @@
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923019</v>
+        <v>0.0007298762958923013</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441385</v>
+        <v>55511.09310441386</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3079,20 +3079,20 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3137,7 +3137,7 @@
         <v>174.581165598501</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005973992805999482</v>
+        <v>0.0005973992805999483</v>
       </c>
       <c r="M38" t="n">
         <v>32.5799358286726</v>
@@ -3150,20 +3150,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3202,39 +3202,39 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428289</v>
+        <v>0.003535944426428287</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001604180994517588</v>
+        <v>0.001604180994517587</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269121</v>
+        <v>49860.53582269123</v>
       </c>
       <c r="O39" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3273,39 +3273,39 @@
         <v>3.175</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002197614221644402</v>
+        <v>0.002197614221644403</v>
       </c>
       <c r="K40" t="n">
         <v>126.327924989666</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003662964402999014</v>
+        <v>0.0003662964402999018</v>
       </c>
       <c r="M40" t="n">
         <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>57484.122438532</v>
+        <v>57484.12243853199</v>
       </c>
       <c r="O40" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3344,39 +3344,39 @@
         <v>3.175</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002440386540067831</v>
+        <v>0.002440386540067832</v>
       </c>
       <c r="K41" t="n">
         <v>127.142187354785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001272923963641631</v>
+        <v>0.001272923963641632</v>
       </c>
       <c r="M41" t="n">
         <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>52099.20037964602</v>
+        <v>52099.200379646</v>
       </c>
       <c r="O41" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3415,39 +3415,39 @@
         <v>3.175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002919619240649738</v>
+        <v>0.002919619240649737</v>
       </c>
       <c r="K42" t="n">
         <v>137.914967289347</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0004717993448001379</v>
+        <v>0.0004717993448001373</v>
       </c>
       <c r="M42" t="n">
         <v>22.2865332229986</v>
       </c>
       <c r="N42" t="n">
-        <v>47237.31278694243</v>
+        <v>47237.31278694244</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3486,39 +3486,39 @@
         <v>3.175</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0007756972094795218</v>
+        <v>0.0007756972094795681</v>
       </c>
       <c r="K43" t="n">
         <v>43.69035133474</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0004853675214597392</v>
+        <v>0.0004853675214597681</v>
       </c>
       <c r="M43" t="n">
         <v>27.3378288330787</v>
       </c>
       <c r="N43" t="n">
-        <v>56323.97641865361</v>
+        <v>56323.97641865025</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3576,20 +3576,20 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3647,20 +3647,20 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3699,39 +3699,39 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312869</v>
+        <v>0.001642667931312868</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568681</v>
+        <v>0.0008846657864568689</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484174</v>
+        <v>52943.65838484175</v>
       </c>
       <c r="O46" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3770,39 +3770,39 @@
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002029688456395919</v>
+        <v>0.002029688456395918</v>
       </c>
       <c r="K47" t="n">
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243188</v>
+        <v>0.0002692857965243174</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640273</v>
+        <v>48437.73151640275</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3847,7 +3847,7 @@
         <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0004515525620684</v>
+        <v>0.0004515525620684002</v>
       </c>
       <c r="M48" t="n">
         <v>23.5320241377496</v>
@@ -3860,20 +3860,20 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3918,7 +3918,7 @@
         <v>214.622689722153</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001324219784092684</v>
+        <v>0.001324219784092685</v>
       </c>
       <c r="M49" t="n">
         <v>60.5090028752196</v>
@@ -3931,20 +3931,20 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3989,7 +3989,7 @@
         <v>151.737831510864</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005664390169995647</v>
+        <v>0.0005664390169995646</v>
       </c>
       <c r="M50" t="n">
         <v>29.9205011226317</v>
@@ -4002,20 +4002,20 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4073,20 +4073,20 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4144,20 +4144,20 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4215,20 +4215,20 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4267,41 +4267,41 @@
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003684993496534412</v>
+        <v>0.00368499349653421</v>
       </c>
       <c r="K54" t="n">
         <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002272049722026811</v>
+        <v>0.002272049722026686</v>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>44013.1212933112</v>
+        <v>44013.1212933136</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0009700428058603003</v>
+        <v>0.000970042805860502</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00634629]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>[191.29395231]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
         </is>
       </c>
     </row>
@@ -4361,20 +4361,20 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4419,33 +4419,33 @@
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356743733</v>
+        <v>0.0009362218356743739</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631024</v>
+        <v>50095.81368631023</v>
       </c>
       <c r="O56" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr"/>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4503,20 +4503,20 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4574,20 +4574,20 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4632,7 +4632,7 @@
         <v>159.315233127494</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002309406477392016</v>
+        <v>0.002309406477392015</v>
       </c>
       <c r="M59" t="n">
         <v>100</v>
@@ -4645,22 +4645,22 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663262]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>[200.59782047]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
         </is>
       </c>
     </row>
@@ -4701,39 +4701,39 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002183439006668277</v>
+        <v>0.002183439006668278</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921077</v>
+        <v>0.001216178373921078</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676712</v>
+        <v>52310.56454676711</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4791,20 +4791,20 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00632875]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>[187.98306967]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
           <t>LPL @ 75</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
         </is>
       </c>
     </row>
@@ -4930,27 +4930,27 @@
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452443</v>
+        <v>51251.21984452444</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5008,20 +5008,20 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5060,39 +5060,39 @@
         <v>3.175</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002801238875892798</v>
+        <v>0.002801238875892799</v>
       </c>
       <c r="K65" t="n">
         <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007091321681881983</v>
+        <v>0.0007091321681881988</v>
       </c>
       <c r="M65" t="n">
         <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>49095.9216823086</v>
+        <v>49095.92168230859</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr"/>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00581521]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>[184.28113182]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
         </is>
       </c>
     </row>
@@ -5218,27 +5218,27 @@
         <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>42336.50950927417</v>
+        <v>42336.50950927416</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5277,13 +5277,13 @@
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.004027151846017032</v>
+        <v>0.004027151846017031</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.002438382967616404</v>
+        <v>0.002438382967616403</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
@@ -5292,26 +5292,26 @@
         <v>41010.78515068252</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0009581021085889995</v>
+        <v>0.0009581021085890004</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00699032]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>[204.65696578]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
         </is>
       </c>
     </row>
@@ -5352,39 +5352,39 @@
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004318579631240168</v>
+        <v>0.004318579631240166</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338468</v>
+        <v>0.001009341110338465</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.8236428747</v>
+        <v>43615.82364287472</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>8.673617379884035e-19</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5423,7 +5423,7 @@
         <v>3.175</v>
       </c>
       <c r="J70" t="n">
-        <v>0.004512857274977415</v>
+        <v>0.004512857274977414</v>
       </c>
       <c r="K70" t="n">
         <v>178.246468462332</v>
@@ -5435,27 +5435,27 @@
         <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>39497.47523606849</v>
+        <v>39497.4752360685</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5500,33 +5500,33 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007743519844788434</v>
+        <v>0.000774351984478844</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970556</v>
+        <v>37416.04709970555</v>
       </c>
       <c r="O71" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5584,20 +5584,20 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5655,20 +5655,20 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5726,20 +5726,20 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr"/>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5793,24 +5793,24 @@
         <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5868,20 +5868,20 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5991,39 +5991,39 @@
         <v>3.175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.002908448967036806</v>
+        <v>0.002908448967036807</v>
       </c>
       <c r="K78" t="n">
         <v>110.081902277342</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0004249535703063055</v>
+        <v>0.0004249535703063062</v>
       </c>
       <c r="M78" t="n">
         <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>37849.00595642768</v>
+        <v>37849.00595642767</v>
       </c>
       <c r="O78" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6068,33 +6068,33 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325139</v>
+        <v>0.0008311687471325137</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458697</v>
+        <v>43221.08272458698</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr"/>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6139,7 +6139,7 @@
         <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0003564904747817478</v>
+        <v>0.0003564904747817477</v>
       </c>
       <c r="M80" t="n">
         <v>12.64659236909</v>
@@ -6152,20 +6152,20 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6223,20 +6223,20 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6275,39 +6275,39 @@
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.000916007180450091</v>
+        <v>0.0009160071804499832</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003289580731545218</v>
+        <v>0.0003289580731544832</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>47052.00613827537</v>
+        <v>47052.00613828091</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6352,7 +6352,7 @@
         <v>51.7861136852212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0008208543378776717</v>
+        <v>0.0008208543378776718</v>
       </c>
       <c r="M83" t="n">
         <v>26.3712347951603</v>
@@ -6365,20 +6365,20 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>56.7732969744529</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0007106552308107725</v>
+        <v>0.0007106552308107723</v>
       </c>
       <c r="M84" t="n">
         <v>30</v>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00364606]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>[69.48773288]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
         </is>
       </c>
     </row>
@@ -6492,39 +6492,39 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370434</v>
+        <v>0.001133706609370296</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910133367e-05</v>
+        <v>2.996225910133042e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124981459</v>
+        <v>50216.57124982067</v>
       </c>
       <c r="O85" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6569,33 +6569,33 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684951</v>
+        <v>0.0006235740665684954</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290324</v>
+        <v>53428.72227290323</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>-2.168404344971009e-19</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6634,39 +6634,39 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900995</v>
+        <v>0.001197085137900892</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772309599e-05</v>
+        <v>8.908567772308797e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920433</v>
+        <v>43347.78812920808</v>
       </c>
       <c r="O87" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6705,7 +6705,7 @@
         <v>3.175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0007068327420114108</v>
+        <v>0.0007068327420114109</v>
       </c>
       <c r="K88" t="n">
         <v>43.4660299348499</v>
@@ -6717,27 +6717,27 @@
         <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>61494.08106245905</v>
+        <v>61494.08106245904</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6782,33 +6782,33 @@
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002320617808629959</v>
+        <v>0.0002320617808629956</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>40403.9485411606</v>
+        <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6853,33 +6853,33 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584651</v>
+        <v>0.0009467802092584647</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444175</v>
+        <v>41908.23072444176</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6937,20 +6937,20 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6995,33 +6995,33 @@
         <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0001282871298544485</v>
+        <v>0.0001282871298544488</v>
       </c>
       <c r="M92" t="n">
         <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>43739.69865063918</v>
+        <v>43739.69865063917</v>
       </c>
       <c r="O92" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7066,7 +7066,7 @@
         <v>66.9553327522687</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0007398637008391106</v>
+        <v>0.0007398637008391102</v>
       </c>
       <c r="M93" t="n">
         <v>30</v>
@@ -7079,22 +7079,22 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00404133]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>[82.77179247]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
         </is>
       </c>
     </row>
@@ -7135,39 +7135,39 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.000950103311477327</v>
+        <v>0.0009501033114772988</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292705e-05</v>
+        <v>3.835712248292586e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324052</v>
+        <v>45349.66936324187</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7206,39 +7206,39 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.00131027395965521</v>
+        <v>0.0013102739596552</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.030809767081075e-05</v>
+        <v>2.03080976708099e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.5187158682</v>
+        <v>45579.51871586858</v>
       </c>
       <c r="O95" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7296,20 +7296,20 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7348,39 +7348,39 @@
         <v>3.175</v>
       </c>
       <c r="J97" t="n">
-        <v>0.000948348554995344</v>
+        <v>0.0009483485549953443</v>
       </c>
       <c r="K97" t="n">
         <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.000656170014276044</v>
+        <v>0.0006561700142760442</v>
       </c>
       <c r="M97" t="n">
         <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>43714.75818065652</v>
+        <v>43714.75818065651</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7425,7 +7425,7 @@
         <v>55.1712364974773</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0006578419678800564</v>
+        <v>0.0006578419678800565</v>
       </c>
       <c r="M98" t="n">
         <v>31.5012589561555</v>
@@ -7438,20 +7438,20 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7490,41 +7490,41 @@
         <v>3.175</v>
       </c>
       <c r="J99" t="n">
-        <v>0.002685416160155546</v>
+        <v>0.002685416160155548</v>
       </c>
       <c r="K99" t="n">
         <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001123631928050032</v>
+        <v>0.001123631928050033</v>
       </c>
       <c r="M99" t="n">
         <v>30</v>
       </c>
       <c r="N99" t="n">
-        <v>26699.1345218024</v>
+        <v>26699.13452180238</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0002674287413347199</v>
+        <v>0.0002674287413347185</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00526576]</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>[87.19286708]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
         </is>
       </c>
     </row>
@@ -7584,22 +7584,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00502987]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>[88.65760866]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
         </is>
       </c>
     </row>
@@ -7659,20 +7659,20 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/info/02 fitting info.xlsx
+++ b/example/info/02 fitting info.xlsx
@@ -579,10 +579,10 @@
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050128</v>
+        <v>63702.73562050127</v>
       </c>
       <c r="O2" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -1924,22 +1924,22 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938446999</v>
+        <v>0.003099591938446897</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.850138957700593e-05</v>
+        <v>9.850138957700202e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680225</v>
+        <v>59673.13012680422</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2066,22 +2066,22 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002986865689476004</v>
+        <v>0.002986865689476005</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001295917891209504</v>
+        <v>0.001295917891209503</v>
       </c>
       <c r="M23" t="n">
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784517</v>
+        <v>59252.56043784516</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2137,22 +2137,22 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891336</v>
+        <v>0.002913928760891335</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495351</v>
+        <v>0.0002542523812495349</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553229024</v>
+        <v>56462.62553229026</v>
       </c>
       <c r="O24" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2208,22 +2208,22 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002799291831076499</v>
+        <v>0.0027992918310763</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
       </c>
       <c r="L25" t="n">
-        <v>9.34867799287871e-06</v>
+        <v>9.348677992879577e-06</v>
       </c>
       <c r="M25" t="n">
         <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286482</v>
+        <v>59353.72383286903</v>
       </c>
       <c r="O25" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2279,22 +2279,22 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147758199</v>
+        <v>0.002342094147757995</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213455e-05</v>
+        <v>6.561829182212935e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582195</v>
+        <v>61169.49209582728</v>
       </c>
       <c r="O26" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2350,22 +2350,22 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583311999</v>
+        <v>0.001877897583311898</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191342e-05</v>
+        <v>4.202040312191104e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.72454414391</v>
+        <v>61209.72454414721</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2705,19 +2705,19 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005420269248841921</v>
+        <v>0.0005420269248840922</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559953716e-05</v>
+        <v>4.254760559952936e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449707461</v>
+        <v>85101.4444970903</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923013</v>
+        <v>0.0007298762958923019</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441386</v>
+        <v>55511.09310441385</v>
       </c>
       <c r="O36" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3202,22 +3202,22 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428287</v>
+        <v>0.003535944426428288</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001604180994517587</v>
+        <v>0.001604180994517588</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269123</v>
+        <v>49860.53582269122</v>
       </c>
       <c r="O39" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3699,22 +3699,22 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312868</v>
+        <v>0.001642667931312869</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568689</v>
+        <v>0.0008846657864568681</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484175</v>
+        <v>52943.65838484174</v>
       </c>
       <c r="O46" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3776,16 +3776,16 @@
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243174</v>
+        <v>0.0002692857965243189</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640275</v>
+        <v>48437.73151640274</v>
       </c>
       <c r="O47" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4419,16 +4419,16 @@
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356743739</v>
+        <v>0.0009362218356743733</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631023</v>
+        <v>50095.81368631024</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4701,22 +4701,22 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002183439006668278</v>
+        <v>0.002183439006668277</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921078</v>
+        <v>0.001216178373921077</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676711</v>
+        <v>52310.56454676712</v>
       </c>
       <c r="O60" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4930,10 +4930,10 @@
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452444</v>
+        <v>51251.21984452443</v>
       </c>
       <c r="O63" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -5277,22 +5277,22 @@
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.004027151846017031</v>
+        <v>0.004027151846017286</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.002438382967616403</v>
+        <v>0.002438382967616558</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>41010.78515068252</v>
+        <v>41010.78515067993</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0009581021085890004</v>
+        <v>0.0009581021085887454</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5358,16 +5358,16 @@
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338465</v>
+        <v>0.001009341110338467</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.82364287472</v>
+        <v>43615.82364287471</v>
       </c>
       <c r="O69" t="n">
-        <v>8.673617379884035e-19</v>
+        <v>0</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -5500,16 +5500,16 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.000774351984478844</v>
+        <v>0.0007743519844788433</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970555</v>
+        <v>37416.04709970556</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -6068,16 +6068,16 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325137</v>
+        <v>0.000831168747132514</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458698</v>
+        <v>43221.08272458697</v>
       </c>
       <c r="O79" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>0</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -6492,22 +6492,22 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370296</v>
+        <v>0.001133706609370197</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910133042e-05</v>
+        <v>2.996225910132739e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124982067</v>
+        <v>50216.57124982507</v>
       </c>
       <c r="O85" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -6634,22 +6634,22 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900892</v>
+        <v>0.001197085137900793</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772308797e-05</v>
+        <v>8.908567772308016e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920808</v>
+        <v>43347.78812921167</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -6853,16 +6853,16 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584647</v>
+        <v>0.000946780209258465</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444176</v>
+        <v>41908.23072444175</v>
       </c>
       <c r="O90" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>0</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -7135,19 +7135,19 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0009501033114772988</v>
+        <v>0.0009501033114771959</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292586e-05</v>
+        <v>3.835712248292174e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324187</v>
+        <v>45349.66936324678</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -7206,22 +7206,22 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0013102739596552</v>
+        <v>0.001310273959654997</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.03080976708099e-05</v>
+        <v>2.030809767080685e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.51871586858</v>
+        <v>45579.51871587562</v>
       </c>
       <c r="O95" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
